--- a/Skripsi/jadwal.xlsx
+++ b/Skripsi/jadwal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROG\Documents\skripsi\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D193C42-719A-47F8-B055-B4FE2AC8E8F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93D2713-41B9-4686-A41C-925D8F6C79A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13929" activeTab="1" xr2:uid="{8FFA0FE0-6CEA-460B-9DD8-673A7A943B30}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13929" xr2:uid="{8FFA0FE0-6CEA-460B-9DD8-673A7A943B30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Hari tanggal</t>
   </si>
@@ -153,12 +153,30 @@
   <si>
     <t>Proses</t>
   </si>
+  <si>
+    <t>Sabtu, 6 Maret 2021</t>
+  </si>
+  <si>
+    <t>10.00 - 11.50</t>
+  </si>
+  <si>
+    <t>11.50 - 12.45</t>
+  </si>
+  <si>
+    <t>Istirahat dan sosmed time</t>
+  </si>
+  <si>
+    <t>12.45 - 14.00</t>
+  </si>
+  <si>
+    <t>14.00 - 15.00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +210,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -274,14 +300,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,28 +326,34 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -641,122 +670,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35883FF8-96FD-4444-BC30-E2A0502F8B83}">
-  <dimension ref="B4:F10"/>
+  <dimension ref="B4:F14"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3" style="18" customWidth="1"/>
+    <col min="2" max="2" width="13" style="18" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="26.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="2:6" ht="26.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="26.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="2:6" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -767,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EB3D9C-3EEC-407E-9184-7C17AEF18FDF}">
   <dimension ref="C3:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -781,34 +859,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="14"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="3:5" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10" t="s">
         <v>26</v>
       </c>
     </row>
